--- a/natmiOut/OldD2/LR-pairs_lrc2p/Inhbb-Acvr2a.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Inhbb-Acvr2a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,25 +79,25 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Inhbb</t>
   </si>
   <si>
     <t>Acvr2a</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.57088153096832</v>
+        <v>2.8515055</v>
       </c>
       <c r="H2">
-        <v>2.57088153096832</v>
+        <v>5.703011</v>
       </c>
       <c r="I2">
-        <v>0.6493211847375215</v>
+        <v>0.387259194802113</v>
       </c>
       <c r="J2">
-        <v>0.6493211847375215</v>
+        <v>0.3342184077626661</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.6444693044665</v>
+        <v>10.6794795</v>
       </c>
       <c r="N2">
-        <v>10.6444693044665</v>
+        <v>21.358959</v>
       </c>
       <c r="O2">
-        <v>0.1476353775197148</v>
+        <v>0.1386817475209803</v>
       </c>
       <c r="P2">
-        <v>0.1476353775197148</v>
+        <v>0.1052706227093344</v>
       </c>
       <c r="Q2">
-        <v>27.36566954181212</v>
+        <v>30.45259453138725</v>
       </c>
       <c r="R2">
-        <v>27.36566954181212</v>
+        <v>121.810378125549</v>
       </c>
       <c r="S2">
-        <v>0.09586277824027249</v>
+        <v>0.05370578187872474</v>
       </c>
       <c r="T2">
-        <v>0.09586277824027249</v>
+        <v>0.03518337990609811</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.57088153096832</v>
+        <v>2.8515055</v>
       </c>
       <c r="H3">
-        <v>2.57088153096832</v>
+        <v>5.703011</v>
       </c>
       <c r="I3">
-        <v>0.6493211847375215</v>
+        <v>0.387259194802113</v>
       </c>
       <c r="J3">
-        <v>0.6493211847375215</v>
+        <v>0.3342184077626661</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>24.6712015127492</v>
+        <v>26.32069366666667</v>
       </c>
       <c r="N3">
-        <v>24.6712015127492</v>
+        <v>78.962081</v>
       </c>
       <c r="O3">
-        <v>0.3421816574426433</v>
+        <v>0.3417956646349414</v>
       </c>
       <c r="P3">
-        <v>0.3421816574426433</v>
+        <v>0.3891756820777128</v>
       </c>
       <c r="Q3">
-        <v>63.42673631592459</v>
+        <v>75.05360275431516</v>
       </c>
       <c r="R3">
-        <v>63.42673631592459</v>
+        <v>450.321616525891</v>
       </c>
       <c r="S3">
-        <v>0.2221857992061059</v>
+        <v>0.1323635138733804</v>
       </c>
       <c r="T3">
-        <v>0.2221857992061059</v>
+        <v>0.1300696768039628</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.57088153096832</v>
+        <v>2.8515055</v>
       </c>
       <c r="H4">
-        <v>2.57088153096832</v>
+        <v>5.703011</v>
       </c>
       <c r="I4">
-        <v>0.6493211847375215</v>
+        <v>0.387259194802113</v>
       </c>
       <c r="J4">
-        <v>0.6493211847375215</v>
+        <v>0.3342184077626661</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.64877581538767</v>
+        <v>5.92768</v>
       </c>
       <c r="N4">
-        <v>5.64877581538767</v>
+        <v>17.78304</v>
       </c>
       <c r="O4">
-        <v>0.07834671003081929</v>
+        <v>0.07697575721224656</v>
       </c>
       <c r="P4">
-        <v>0.07834671003081929</v>
+        <v>0.08764620478296728</v>
       </c>
       <c r="Q4">
-        <v>14.52233341636067</v>
+        <v>16.90281212224</v>
       </c>
       <c r="R4">
-        <v>14.52233341636067</v>
+        <v>101.41687273344</v>
       </c>
       <c r="S4">
-        <v>0.05087217857749864</v>
+        <v>0.02980956975729754</v>
       </c>
       <c r="T4">
-        <v>0.05087217857749864</v>
+        <v>0.0292929750090039</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.57088153096832</v>
+        <v>2.8515055</v>
       </c>
       <c r="H5">
-        <v>2.57088153096832</v>
+        <v>5.703011</v>
       </c>
       <c r="I5">
-        <v>0.6493211847375215</v>
+        <v>0.387259194802113</v>
       </c>
       <c r="J5">
-        <v>0.6493211847375215</v>
+        <v>0.3342184077626661</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.98816026829204</v>
+        <v>6.071436333333334</v>
       </c>
       <c r="N5">
-        <v>5.98816026829204</v>
+        <v>18.214309</v>
       </c>
       <c r="O5">
-        <v>0.08305386361412043</v>
+        <v>0.07884255039480526</v>
       </c>
       <c r="P5">
-        <v>0.08305386361412043</v>
+        <v>0.08977177448817772</v>
       </c>
       <c r="Q5">
-        <v>15.3948506382303</v>
+        <v>17.31273409739983</v>
       </c>
       <c r="R5">
-        <v>15.3948506382303</v>
+        <v>103.876404584399</v>
       </c>
       <c r="S5">
-        <v>0.05392863311894921</v>
+        <v>0.0305325025820373</v>
       </c>
       <c r="T5">
-        <v>0.05392863311894921</v>
+        <v>0.03000337953146789</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.57088153096832</v>
+        <v>2.8515055</v>
       </c>
       <c r="H6">
-        <v>2.57088153096832</v>
+        <v>5.703011</v>
       </c>
       <c r="I6">
-        <v>0.6493211847375215</v>
+        <v>0.387259194802113</v>
       </c>
       <c r="J6">
-        <v>0.6493211847375215</v>
+        <v>0.3342184077626661</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.951221760547551</v>
+        <v>10.56170766666667</v>
       </c>
       <c r="N6">
-        <v>9.951221760547551</v>
+        <v>31.685123</v>
       </c>
       <c r="O6">
-        <v>0.1380202562831734</v>
+        <v>0.1371523842542203</v>
       </c>
       <c r="P6">
-        <v>0.1380202562831734</v>
+        <v>0.1561645691080663</v>
       </c>
       <c r="Q6">
-        <v>25.58341223476175</v>
+        <v>30.11676750089216</v>
       </c>
       <c r="R6">
-        <v>25.58341223476175</v>
+        <v>180.700605005353</v>
       </c>
       <c r="S6">
-        <v>0.08961947632756649</v>
+        <v>0.05311352189147934</v>
       </c>
       <c r="T6">
-        <v>0.08961947632756649</v>
+        <v>0.05219307363624075</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.57088153096832</v>
+        <v>2.8515055</v>
       </c>
       <c r="H7">
-        <v>2.57088153096832</v>
+        <v>5.703011</v>
       </c>
       <c r="I7">
-        <v>0.6493211847375215</v>
+        <v>0.387259194802113</v>
       </c>
       <c r="J7">
-        <v>0.6493211847375215</v>
+        <v>0.3342184077626661</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.1958908183617</v>
+        <v>17.446105</v>
       </c>
       <c r="N7">
-        <v>15.1958908183617</v>
+        <v>34.89221</v>
       </c>
       <c r="O7">
-        <v>0.2107621351095285</v>
+        <v>0.2265518959828062</v>
       </c>
       <c r="P7">
-        <v>0.2107621351095285</v>
+        <v>0.1719711468337415</v>
       </c>
       <c r="Q7">
-        <v>39.06683505153717</v>
+        <v>49.7476643610775</v>
       </c>
       <c r="R7">
-        <v>39.06683505153717</v>
+        <v>198.99065744431</v>
       </c>
       <c r="S7">
-        <v>0.1368523192671287</v>
+        <v>0.08773430481919359</v>
       </c>
       <c r="T7">
-        <v>0.1368523192671287</v>
+        <v>0.05747592287589275</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>1.38845568364537</v>
+        <v>0.216357</v>
       </c>
       <c r="H8">
-        <v>1.38845568364537</v>
+        <v>0.649071</v>
       </c>
       <c r="I8">
-        <v>0.3506788152624784</v>
+        <v>0.02938315833856913</v>
       </c>
       <c r="J8">
-        <v>0.3506788152624784</v>
+        <v>0.03803806027113072</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.6444693044665</v>
+        <v>10.6794795</v>
       </c>
       <c r="N8">
-        <v>10.6444693044665</v>
+        <v>21.358959</v>
       </c>
       <c r="O8">
-        <v>0.1476353775197148</v>
+        <v>0.1386817475209803</v>
       </c>
       <c r="P8">
-        <v>0.1476353775197148</v>
+        <v>0.1052706227093344</v>
       </c>
       <c r="Q8">
-        <v>14.77937390517519</v>
+        <v>2.3105801461815</v>
       </c>
       <c r="R8">
-        <v>14.77937390517519</v>
+        <v>13.863480877089</v>
       </c>
       <c r="S8">
-        <v>0.05177259927944234</v>
+        <v>0.00407490774607843</v>
       </c>
       <c r="T8">
-        <v>0.05177259927944234</v>
+        <v>0.004004290291397124</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>1.38845568364537</v>
+        <v>0.216357</v>
       </c>
       <c r="H9">
-        <v>1.38845568364537</v>
+        <v>0.649071</v>
       </c>
       <c r="I9">
-        <v>0.3506788152624784</v>
+        <v>0.02938315833856913</v>
       </c>
       <c r="J9">
-        <v>0.3506788152624784</v>
+        <v>0.03803806027113072</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>24.6712015127492</v>
+        <v>26.32069366666667</v>
       </c>
       <c r="N9">
-        <v>24.6712015127492</v>
+        <v>78.962081</v>
       </c>
       <c r="O9">
-        <v>0.3421816574426433</v>
+        <v>0.3417956646349414</v>
       </c>
       <c r="P9">
-        <v>0.3421816574426433</v>
+        <v>0.3891756820777128</v>
       </c>
       <c r="Q9">
-        <v>34.25486996273688</v>
+        <v>5.694666319638999</v>
       </c>
       <c r="R9">
-        <v>34.25486996273688</v>
+        <v>51.25199687675099</v>
       </c>
       <c r="S9">
-        <v>0.1199958582365374</v>
+        <v>0.01004303613340496</v>
       </c>
       <c r="T9">
-        <v>0.1199958582365374</v>
+        <v>0.01480348805093045</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>1.38845568364537</v>
+        <v>0.216357</v>
       </c>
       <c r="H10">
-        <v>1.38845568364537</v>
+        <v>0.649071</v>
       </c>
       <c r="I10">
-        <v>0.3506788152624784</v>
+        <v>0.02938315833856913</v>
       </c>
       <c r="J10">
-        <v>0.3506788152624784</v>
+        <v>0.03803806027113072</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.64877581538767</v>
+        <v>5.92768</v>
       </c>
       <c r="N10">
-        <v>5.64877581538767</v>
+        <v>17.78304</v>
       </c>
       <c r="O10">
-        <v>0.07834671003081929</v>
+        <v>0.07697575721224656</v>
       </c>
       <c r="P10">
-        <v>0.07834671003081929</v>
+        <v>0.08764620478296728</v>
       </c>
       <c r="Q10">
-        <v>7.84307488651352</v>
+        <v>1.28249506176</v>
       </c>
       <c r="R10">
-        <v>7.84307488651352</v>
+        <v>11.54245555584</v>
       </c>
       <c r="S10">
-        <v>0.02747453145332064</v>
+        <v>0.002261790862398695</v>
       </c>
       <c r="T10">
-        <v>0.02747453145332064</v>
+        <v>0.003333891620070375</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>1.38845568364537</v>
+        <v>0.216357</v>
       </c>
       <c r="H11">
-        <v>1.38845568364537</v>
+        <v>0.649071</v>
       </c>
       <c r="I11">
-        <v>0.3506788152624784</v>
+        <v>0.02938315833856913</v>
       </c>
       <c r="J11">
-        <v>0.3506788152624784</v>
+        <v>0.03803806027113072</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.98816026829204</v>
+        <v>6.071436333333334</v>
       </c>
       <c r="N11">
-        <v>5.98816026829204</v>
+        <v>18.214309</v>
       </c>
       <c r="O11">
-        <v>0.08305386361412043</v>
+        <v>0.07884255039480526</v>
       </c>
       <c r="P11">
-        <v>0.08305386361412043</v>
+        <v>0.08977177448817772</v>
       </c>
       <c r="Q11">
-        <v>8.314295159089466</v>
+        <v>1.313597750771</v>
       </c>
       <c r="R11">
-        <v>8.314295159089466</v>
+        <v>11.822379756939</v>
       </c>
       <c r="S11">
-        <v>0.02912523049517122</v>
+        <v>0.002316643142067179</v>
       </c>
       <c r="T11">
-        <v>0.02912523049517122</v>
+        <v>0.003414744168627659</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>1.38845568364537</v>
+        <v>0.216357</v>
       </c>
       <c r="H12">
-        <v>1.38845568364537</v>
+        <v>0.649071</v>
       </c>
       <c r="I12">
-        <v>0.3506788152624784</v>
+        <v>0.02938315833856913</v>
       </c>
       <c r="J12">
-        <v>0.3506788152624784</v>
+        <v>0.03803806027113072</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.951221760547551</v>
+        <v>10.56170766666667</v>
       </c>
       <c r="N12">
-        <v>9.951221760547551</v>
+        <v>31.685123</v>
       </c>
       <c r="O12">
-        <v>0.1380202562831734</v>
+        <v>0.1371523842542203</v>
       </c>
       <c r="P12">
-        <v>0.1380202562831734</v>
+        <v>0.1561645691080663</v>
       </c>
       <c r="Q12">
-        <v>13.81683041264773</v>
+        <v>2.285099385636999</v>
       </c>
       <c r="R12">
-        <v>13.81683041264773</v>
+        <v>20.565894470733</v>
       </c>
       <c r="S12">
-        <v>0.04840077995560688</v>
+        <v>0.00402997022305403</v>
       </c>
       <c r="T12">
-        <v>0.04840077995560688</v>
+        <v>0.005940197291947783</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,1177 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.216357</v>
+      </c>
+      <c r="H13">
+        <v>0.649071</v>
+      </c>
+      <c r="I13">
+        <v>0.02938315833856913</v>
+      </c>
+      <c r="J13">
+        <v>0.03803806027113072</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>17.446105</v>
+      </c>
+      <c r="N13">
+        <v>34.89221</v>
+      </c>
+      <c r="O13">
+        <v>0.2265518959828062</v>
+      </c>
+      <c r="P13">
+        <v>0.1719711468337415</v>
+      </c>
+      <c r="Q13">
+        <v>3.774586939485</v>
+      </c>
+      <c r="R13">
+        <v>22.64752163691</v>
+      </c>
+      <c r="S13">
+        <v>0.00665681023156584</v>
+      </c>
+      <c r="T13">
+        <v>0.006541448848157331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.05725033333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.171751</v>
+      </c>
+      <c r="I14">
+        <v>0.007775092136002975</v>
+      </c>
+      <c r="J14">
+        <v>0.01006527003922063</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>10.6794795</v>
+      </c>
+      <c r="N14">
+        <v>21.358959</v>
+      </c>
+      <c r="O14">
+        <v>0.1386817475209803</v>
+      </c>
+      <c r="P14">
+        <v>0.1052706227093344</v>
+      </c>
+      <c r="Q14">
+        <v>0.6114037612014999</v>
+      </c>
+      <c r="R14">
+        <v>3.668422567208999</v>
+      </c>
+      <c r="S14">
+        <v>0.001078263364557524</v>
+      </c>
+      <c r="T14">
+        <v>0.001059577244766362</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.05725033333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.171751</v>
+      </c>
+      <c r="I15">
+        <v>0.007775092136002975</v>
+      </c>
+      <c r="J15">
+        <v>0.01006527003922063</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>26.32069366666667</v>
+      </c>
+      <c r="N15">
+        <v>78.962081</v>
+      </c>
+      <c r="O15">
+        <v>0.3417956646349414</v>
+      </c>
+      <c r="P15">
+        <v>0.3891756820777128</v>
+      </c>
+      <c r="Q15">
+        <v>1.506868485981222</v>
+      </c>
+      <c r="R15">
+        <v>13.561816373831</v>
+      </c>
+      <c r="S15">
+        <v>0.002657492784223043</v>
+      </c>
+      <c r="T15">
+        <v>0.003917158332810055</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.05725033333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.171751</v>
+      </c>
+      <c r="I16">
+        <v>0.007775092136002975</v>
+      </c>
+      <c r="J16">
+        <v>0.01006527003922063</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>5.92768</v>
+      </c>
+      <c r="N16">
+        <v>17.78304</v>
+      </c>
+      <c r="O16">
+        <v>0.07697575721224656</v>
+      </c>
+      <c r="P16">
+        <v>0.08764620478296728</v>
+      </c>
+      <c r="Q16">
+        <v>0.3393616558933333</v>
+      </c>
+      <c r="R16">
+        <v>3.05425490304</v>
+      </c>
+      <c r="S16">
+        <v>0.0005984936045638125</v>
+      </c>
+      <c r="T16">
+        <v>0.0008821827190533963</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.05725033333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.171751</v>
+      </c>
+      <c r="I17">
+        <v>0.007775092136002975</v>
+      </c>
+      <c r="J17">
+        <v>0.01006527003922063</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>6.071436333333334</v>
+      </c>
+      <c r="N17">
+        <v>18.214309</v>
+      </c>
+      <c r="O17">
+        <v>0.07884255039480526</v>
+      </c>
+      <c r="P17">
+        <v>0.08977177448817772</v>
+      </c>
+      <c r="Q17">
+        <v>0.3475917538954444</v>
+      </c>
+      <c r="R17">
+        <v>3.128325785059</v>
+      </c>
+      <c r="S17">
+        <v>0.0006130080935570686</v>
+      </c>
+      <c r="T17">
+        <v>0.0009035771521235259</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.05725033333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.171751</v>
+      </c>
+      <c r="I18">
+        <v>0.007775092136002975</v>
+      </c>
+      <c r="J18">
+        <v>0.01006527003922063</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>10.56170766666667</v>
+      </c>
+      <c r="N18">
+        <v>31.685123</v>
+      </c>
+      <c r="O18">
+        <v>0.1371523842542203</v>
+      </c>
+      <c r="P18">
+        <v>0.1561645691080663</v>
+      </c>
+      <c r="Q18">
+        <v>0.6046612844858887</v>
+      </c>
+      <c r="R18">
+        <v>5.441951560372999</v>
+      </c>
+      <c r="S18">
+        <v>0.001066372424249046</v>
+      </c>
+      <c r="T18">
+        <v>0.001571838558631218</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.05725033333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.171751</v>
+      </c>
+      <c r="I19">
+        <v>0.007775092136002975</v>
+      </c>
+      <c r="J19">
+        <v>0.01006527003922063</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>17.446105</v>
+      </c>
+      <c r="N19">
+        <v>34.89221</v>
+      </c>
+      <c r="O19">
+        <v>0.2265518959828062</v>
+      </c>
+      <c r="P19">
+        <v>0.1719711468337415</v>
+      </c>
+      <c r="Q19">
+        <v>0.9987953266183331</v>
+      </c>
+      <c r="R19">
+        <v>5.992771959709999</v>
+      </c>
+      <c r="S19">
+        <v>0.001761461864852481</v>
+      </c>
+      <c r="T19">
+        <v>0.00173093603183607</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2.063518333333333</v>
+      </c>
+      <c r="H20">
+        <v>6.190555</v>
+      </c>
+      <c r="I20">
+        <v>0.2802436987149647</v>
+      </c>
+      <c r="J20">
+        <v>0.3627903637687551</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>10.6794795</v>
+      </c>
+      <c r="N20">
+        <v>21.358959</v>
+      </c>
+      <c r="O20">
+        <v>0.1386817475209803</v>
+      </c>
+      <c r="P20">
+        <v>0.1052706227093344</v>
+      </c>
+      <c r="Q20">
+        <v>22.0373017387075</v>
+      </c>
+      <c r="R20">
+        <v>132.223810432245</v>
+      </c>
+      <c r="S20">
+        <v>0.03886468586953439</v>
+      </c>
+      <c r="T20">
+        <v>0.0381911675068828</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.063518333333333</v>
+      </c>
+      <c r="H21">
+        <v>6.190555</v>
+      </c>
+      <c r="I21">
+        <v>0.2802436987149647</v>
+      </c>
+      <c r="J21">
+        <v>0.3627903637687551</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>26.32069366666667</v>
+      </c>
+      <c r="N21">
+        <v>78.962081</v>
+      </c>
+      <c r="O21">
+        <v>0.3417956646349414</v>
+      </c>
+      <c r="P21">
+        <v>0.3891756820777128</v>
+      </c>
+      <c r="Q21">
+        <v>54.31323392721722</v>
+      </c>
+      <c r="R21">
+        <v>488.8191053449549</v>
+      </c>
+      <c r="S21">
+        <v>0.09578608126203562</v>
+      </c>
+      <c r="T21">
+        <v>0.1411891872709268</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
         <v>27</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.38845568364537</v>
-      </c>
-      <c r="H13">
-        <v>1.38845568364537</v>
-      </c>
-      <c r="I13">
-        <v>0.3506788152624784</v>
-      </c>
-      <c r="J13">
-        <v>0.3506788152624784</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>15.1958908183617</v>
-      </c>
-      <c r="N13">
-        <v>15.1958908183617</v>
-      </c>
-      <c r="O13">
-        <v>0.2107621351095285</v>
-      </c>
-      <c r="P13">
-        <v>0.2107621351095285</v>
-      </c>
-      <c r="Q13">
-        <v>21.0988209748088</v>
-      </c>
-      <c r="R13">
-        <v>21.0988209748088</v>
-      </c>
-      <c r="S13">
-        <v>0.07390981584239988</v>
-      </c>
-      <c r="T13">
-        <v>0.07390981584239988</v>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2.063518333333333</v>
+      </c>
+      <c r="H22">
+        <v>6.190555</v>
+      </c>
+      <c r="I22">
+        <v>0.2802436987149647</v>
+      </c>
+      <c r="J22">
+        <v>0.3627903637687551</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>5.92768</v>
+      </c>
+      <c r="N22">
+        <v>17.78304</v>
+      </c>
+      <c r="O22">
+        <v>0.07697575721224656</v>
+      </c>
+      <c r="P22">
+        <v>0.08764620478296728</v>
+      </c>
+      <c r="Q22">
+        <v>12.23187635413333</v>
+      </c>
+      <c r="R22">
+        <v>110.0868871872</v>
+      </c>
+      <c r="S22">
+        <v>0.02157197091254509</v>
+      </c>
+      <c r="T22">
+        <v>0.03179719851616351</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2.063518333333333</v>
+      </c>
+      <c r="H23">
+        <v>6.190555</v>
+      </c>
+      <c r="I23">
+        <v>0.2802436987149647</v>
+      </c>
+      <c r="J23">
+        <v>0.3627903637687551</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>6.071436333333334</v>
+      </c>
+      <c r="N23">
+        <v>18.214309</v>
+      </c>
+      <c r="O23">
+        <v>0.07884255039480526</v>
+      </c>
+      <c r="P23">
+        <v>0.08977177448817772</v>
+      </c>
+      <c r="Q23">
+        <v>12.52852018349944</v>
+      </c>
+      <c r="R23">
+        <v>112.756681651495</v>
+      </c>
+      <c r="S23">
+        <v>0.02209512793876122</v>
+      </c>
+      <c r="T23">
+        <v>0.03256833472273264</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2.063518333333333</v>
+      </c>
+      <c r="H24">
+        <v>6.190555</v>
+      </c>
+      <c r="I24">
+        <v>0.2802436987149647</v>
+      </c>
+      <c r="J24">
+        <v>0.3627903637687551</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>10.56170766666667</v>
+      </c>
+      <c r="N24">
+        <v>31.685123</v>
+      </c>
+      <c r="O24">
+        <v>0.1371523842542203</v>
+      </c>
+      <c r="P24">
+        <v>0.1561645691080663</v>
+      </c>
+      <c r="Q24">
+        <v>21.79427740147388</v>
+      </c>
+      <c r="R24">
+        <v>196.148496613265</v>
+      </c>
+      <c r="S24">
+        <v>0.03843609145097877</v>
+      </c>
+      <c r="T24">
+        <v>0.05665500083450625</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.063518333333333</v>
+      </c>
+      <c r="H25">
+        <v>6.190555</v>
+      </c>
+      <c r="I25">
+        <v>0.2802436987149647</v>
+      </c>
+      <c r="J25">
+        <v>0.3627903637687551</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>17.446105</v>
+      </c>
+      <c r="N25">
+        <v>34.89221</v>
+      </c>
+      <c r="O25">
+        <v>0.2265518959828062</v>
+      </c>
+      <c r="P25">
+        <v>0.1719711468337415</v>
+      </c>
+      <c r="Q25">
+        <v>36.00035751275833</v>
+      </c>
+      <c r="R25">
+        <v>216.00214507655</v>
+      </c>
+      <c r="S25">
+        <v>0.06348974128110957</v>
+      </c>
+      <c r="T25">
+        <v>0.06238947491754308</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.5</v>
+      </c>
+      <c r="G26">
+        <v>2.1746685</v>
+      </c>
+      <c r="H26">
+        <v>4.349337</v>
+      </c>
+      <c r="I26">
+        <v>0.2953388560083502</v>
+      </c>
+      <c r="J26">
+        <v>0.2548878981582275</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>10.6794795</v>
+      </c>
+      <c r="N26">
+        <v>21.358959</v>
+      </c>
+      <c r="O26">
+        <v>0.1386817475209803</v>
+      </c>
+      <c r="P26">
+        <v>0.1052706227093344</v>
+      </c>
+      <c r="Q26">
+        <v>23.22432766504575</v>
+      </c>
+      <c r="R26">
+        <v>92.897310660183</v>
+      </c>
+      <c r="S26">
+        <v>0.04095810866208517</v>
+      </c>
+      <c r="T26">
+        <v>0.02683220776019002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.5</v>
+      </c>
+      <c r="G27">
+        <v>2.1746685</v>
+      </c>
+      <c r="H27">
+        <v>4.349337</v>
+      </c>
+      <c r="I27">
+        <v>0.2953388560083502</v>
+      </c>
+      <c r="J27">
+        <v>0.2548878981582275</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>26.32069366666667</v>
+      </c>
+      <c r="N27">
+        <v>78.962081</v>
+      </c>
+      <c r="O27">
+        <v>0.3417956646349414</v>
+      </c>
+      <c r="P27">
+        <v>0.3891756820777128</v>
+      </c>
+      <c r="Q27">
+        <v>57.2387834150495</v>
+      </c>
+      <c r="R27">
+        <v>343.432700490297</v>
+      </c>
+      <c r="S27">
+        <v>0.1009455405818973</v>
+      </c>
+      <c r="T27">
+        <v>0.09919617161908278</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.5</v>
+      </c>
+      <c r="G28">
+        <v>2.1746685</v>
+      </c>
+      <c r="H28">
+        <v>4.349337</v>
+      </c>
+      <c r="I28">
+        <v>0.2953388560083502</v>
+      </c>
+      <c r="J28">
+        <v>0.2548878981582275</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>5.92768</v>
+      </c>
+      <c r="N28">
+        <v>17.78304</v>
+      </c>
+      <c r="O28">
+        <v>0.07697575721224656</v>
+      </c>
+      <c r="P28">
+        <v>0.08764620478296728</v>
+      </c>
+      <c r="Q28">
+        <v>12.89073897408</v>
+      </c>
+      <c r="R28">
+        <v>77.34443384448001</v>
+      </c>
+      <c r="S28">
+        <v>0.02273393207544142</v>
+      </c>
+      <c r="T28">
+        <v>0.02233995691867612</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.5</v>
+      </c>
+      <c r="G29">
+        <v>2.1746685</v>
+      </c>
+      <c r="H29">
+        <v>4.349337</v>
+      </c>
+      <c r="I29">
+        <v>0.2953388560083502</v>
+      </c>
+      <c r="J29">
+        <v>0.2548878981582275</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>6.071436333333334</v>
+      </c>
+      <c r="N29">
+        <v>18.214309</v>
+      </c>
+      <c r="O29">
+        <v>0.07884255039480526</v>
+      </c>
+      <c r="P29">
+        <v>0.08977177448817772</v>
+      </c>
+      <c r="Q29">
+        <v>13.2033613438555</v>
+      </c>
+      <c r="R29">
+        <v>79.220168063133</v>
+      </c>
+      <c r="S29">
+        <v>0.02328526863838249</v>
+      </c>
+      <c r="T29">
+        <v>0.02288173891322601</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.5</v>
+      </c>
+      <c r="G30">
+        <v>2.1746685</v>
+      </c>
+      <c r="H30">
+        <v>4.349337</v>
+      </c>
+      <c r="I30">
+        <v>0.2953388560083502</v>
+      </c>
+      <c r="J30">
+        <v>0.2548878981582275</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>10.56170766666667</v>
+      </c>
+      <c r="N30">
+        <v>31.685123</v>
+      </c>
+      <c r="O30">
+        <v>0.1371523842542203</v>
+      </c>
+      <c r="P30">
+        <v>0.1561645691080663</v>
+      </c>
+      <c r="Q30">
+        <v>22.9682129689085</v>
+      </c>
+      <c r="R30">
+        <v>137.809277813451</v>
+      </c>
+      <c r="S30">
+        <v>0.04050642826445908</v>
+      </c>
+      <c r="T30">
+        <v>0.03980445878674027</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.5</v>
+      </c>
+      <c r="G31">
+        <v>2.1746685</v>
+      </c>
+      <c r="H31">
+        <v>4.349337</v>
+      </c>
+      <c r="I31">
+        <v>0.2953388560083502</v>
+      </c>
+      <c r="J31">
+        <v>0.2548878981582275</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>17.446105</v>
+      </c>
+      <c r="N31">
+        <v>34.89221</v>
+      </c>
+      <c r="O31">
+        <v>0.2265518959828062</v>
+      </c>
+      <c r="P31">
+        <v>0.1719711468337415</v>
+      </c>
+      <c r="Q31">
+        <v>37.9394949911925</v>
+      </c>
+      <c r="R31">
+        <v>151.75797996477</v>
+      </c>
+      <c r="S31">
+        <v>0.06690957778608475</v>
+      </c>
+      <c r="T31">
+        <v>0.04383336416031229</v>
       </c>
     </row>
   </sheetData>
